--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.684825825633</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H2">
-        <v>123.684825825633</v>
+        <v>376.380997</v>
       </c>
       <c r="I2">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J2">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N2">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O2">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P2">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q2">
-        <v>6019.286694394395</v>
+        <v>6189.140153305327</v>
       </c>
       <c r="R2">
-        <v>6019.286694394395</v>
+        <v>55702.26137974794</v>
       </c>
       <c r="S2">
-        <v>0.1472048431321486</v>
+        <v>0.1425642353023634</v>
       </c>
       <c r="T2">
-        <v>0.1472048431321486</v>
+        <v>0.1425642353023635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.684825825633</v>
+        <v>125.4603323333333</v>
       </c>
       <c r="H3">
-        <v>123.684825825633</v>
+        <v>376.380997</v>
       </c>
       <c r="I3">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="J3">
-        <v>0.1473034966343501</v>
+        <v>0.1427077914074319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N3">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O3">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P3">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q3">
-        <v>4.0339957607504</v>
+        <v>6.232200188547555</v>
       </c>
       <c r="R3">
-        <v>4.0339957607504</v>
+        <v>56.08980169692799</v>
       </c>
       <c r="S3">
-        <v>9.865350220151957E-05</v>
+        <v>0.0001435561050684928</v>
       </c>
       <c r="T3">
-        <v>9.865350220151957E-05</v>
+        <v>0.0001435561050684929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>207.196120960201</v>
+        <v>207.849991</v>
       </c>
       <c r="H4">
-        <v>207.196120960201</v>
+        <v>623.549973</v>
       </c>
       <c r="I4">
-        <v>0.2467619847687582</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J4">
-        <v>0.2467619847687582</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N4">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O4">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P4">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q4">
-        <v>10083.47503988965</v>
+        <v>10253.54150780028</v>
       </c>
       <c r="R4">
-        <v>10083.47503988965</v>
+        <v>92281.87357020253</v>
       </c>
       <c r="S4">
-        <v>0.2465967209796164</v>
+        <v>0.2361860077477673</v>
       </c>
       <c r="T4">
-        <v>0.2465967209796164</v>
+        <v>0.2361860077477673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>207.196120960201</v>
+        <v>207.849991</v>
       </c>
       <c r="H5">
-        <v>207.196120960201</v>
+        <v>623.549973</v>
       </c>
       <c r="I5">
-        <v>0.2467619847687582</v>
+        <v>0.2364238369850373</v>
       </c>
       <c r="J5">
-        <v>0.2467619847687582</v>
+        <v>0.2364238369850374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N5">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O5">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P5">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q5">
-        <v>6.75772689186386</v>
+        <v>10.32487901959467</v>
       </c>
       <c r="R5">
-        <v>6.75772689186386</v>
+        <v>92.92391117635199</v>
       </c>
       <c r="S5">
-        <v>0.0001652637891418471</v>
+        <v>0.0002378292372700311</v>
       </c>
       <c r="T5">
-        <v>0.0001652637891418471</v>
+        <v>0.0002378292372700312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>240.160036764417</v>
+        <v>240.299296</v>
       </c>
       <c r="H6">
-        <v>240.160036764417</v>
+        <v>720.897888</v>
       </c>
       <c r="I6">
-        <v>0.2860206410211165</v>
+        <v>0.2733340584321854</v>
       </c>
       <c r="J6">
-        <v>0.2860206410211165</v>
+        <v>0.2733340584321856</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N6">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O6">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P6">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q6">
-        <v>11687.70788309371</v>
+        <v>11854.31278575896</v>
       </c>
       <c r="R6">
-        <v>11687.70788309371</v>
+        <v>106688.8150718307</v>
       </c>
       <c r="S6">
-        <v>0.2858290845504056</v>
+        <v>0.2730590995639688</v>
       </c>
       <c r="T6">
-        <v>0.2858290845504056</v>
+        <v>0.2730590995639689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>240.160036764417</v>
+        <v>240.299296</v>
       </c>
       <c r="H7">
-        <v>240.160036764417</v>
+        <v>720.897888</v>
       </c>
       <c r="I7">
-        <v>0.2860206410211165</v>
+        <v>0.2733340584321854</v>
       </c>
       <c r="J7">
-        <v>0.2860206410211165</v>
+        <v>0.2733340584321856</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N7">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O7">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P7">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q7">
-        <v>7.832849047910765</v>
+        <v>11.93678742903467</v>
       </c>
       <c r="R7">
-        <v>7.832849047910765</v>
+        <v>107.431086861312</v>
       </c>
       <c r="S7">
-        <v>0.0001915564707109388</v>
+        <v>0.0002749588682166719</v>
       </c>
       <c r="T7">
-        <v>0.0001915564707109388</v>
+        <v>0.000274958868216672</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>169.903057080677</v>
+        <v>190.0452853333333</v>
       </c>
       <c r="H8">
-        <v>169.903057080677</v>
+        <v>570.135856</v>
       </c>
       <c r="I8">
-        <v>0.2023474927484801</v>
+        <v>0.2161714578059467</v>
       </c>
       <c r="J8">
-        <v>0.2023474927484801</v>
+        <v>0.2161714578059467</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N8">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O8">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P8">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q8">
-        <v>8268.558442766571</v>
+        <v>9375.209554505494</v>
       </c>
       <c r="R8">
-        <v>8268.558442766571</v>
+        <v>84376.88599054945</v>
       </c>
       <c r="S8">
-        <v>0.2022119746563951</v>
+        <v>0.2159540013363065</v>
       </c>
       <c r="T8">
-        <v>0.2022119746563951</v>
+        <v>0.2159540013363066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>169.903057080677</v>
+        <v>190.0452853333333</v>
       </c>
       <c r="H9">
-        <v>169.903057080677</v>
+        <v>570.135856</v>
       </c>
       <c r="I9">
-        <v>0.2023474927484801</v>
+        <v>0.2161714578059467</v>
       </c>
       <c r="J9">
-        <v>0.2023474927484801</v>
+        <v>0.2161714578059467</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N9">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O9">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P9">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q9">
-        <v>5.541409040493156</v>
+        <v>9.440436200504889</v>
       </c>
       <c r="R9">
-        <v>5.541409040493156</v>
+        <v>84.96392580454399</v>
       </c>
       <c r="S9">
-        <v>0.0001355180920849851</v>
+        <v>0.0002174564696401267</v>
       </c>
       <c r="T9">
-        <v>0.0001355180920849851</v>
+        <v>0.0002174564696401267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>98.71576821023319</v>
+        <v>115.486529</v>
       </c>
       <c r="H10">
-        <v>98.71576821023319</v>
+        <v>346.459587</v>
       </c>
       <c r="I10">
-        <v>0.1175663848272954</v>
+        <v>0.1313628553693985</v>
       </c>
       <c r="J10">
-        <v>0.1175663848272954</v>
+        <v>0.1313628553693985</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.6663311704881</v>
+        <v>49.33145033333333</v>
       </c>
       <c r="N10">
-        <v>48.6663311704881</v>
+        <v>147.994351</v>
       </c>
       <c r="O10">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="P10">
-        <v>0.9993302704657012</v>
+        <v>0.9989940555897285</v>
       </c>
       <c r="Q10">
-        <v>4804.13426746835</v>
+        <v>5697.117969532559</v>
       </c>
       <c r="R10">
-        <v>4804.13426746835</v>
+        <v>51274.06172579304</v>
       </c>
       <c r="S10">
-        <v>0.1174876471471358</v>
+        <v>0.1312307116393224</v>
       </c>
       <c r="T10">
-        <v>0.1174876471471358</v>
+        <v>0.1312307116393224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>98.71576821023319</v>
+        <v>115.486529</v>
       </c>
       <c r="H11">
-        <v>98.71576821023319</v>
+        <v>346.459587</v>
       </c>
       <c r="I11">
-        <v>0.1175663848272954</v>
+        <v>0.1313628553693985</v>
       </c>
       <c r="J11">
-        <v>0.1175663848272954</v>
+        <v>0.1313628553693985</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0326151226217305</v>
+        <v>0.04967466666666667</v>
       </c>
       <c r="N11">
-        <v>0.0326151226217305</v>
+        <v>0.149024</v>
       </c>
       <c r="O11">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="P11">
-        <v>0.0006697295342988776</v>
+        <v>0.001005944410271468</v>
       </c>
       <c r="Q11">
-        <v>3.219626884875081</v>
+        <v>5.736754832565333</v>
       </c>
       <c r="R11">
-        <v>3.219626884875081</v>
+        <v>51.630793493088</v>
       </c>
       <c r="S11">
-        <v>7.873768015958714E-05</v>
+        <v>0.0001321437300761458</v>
       </c>
       <c r="T11">
-        <v>7.873768015958714E-05</v>
+        <v>0.0001321437300761458</v>
       </c>
     </row>
   </sheetData>
